--- a/medicine/Sexualité et sexologie/Jeu_d'amour_interdit/Jeu_d'amour_interdit.xlsx
+++ b/medicine/Sexualité et sexologie/Jeu_d'amour_interdit/Jeu_d'amour_interdit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jeu_d%27amour_interdit</t>
+          <t>Jeu_d'amour_interdit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeu d'amour interdit (Juego de amor prohibido) est un film espagnol réalisé par Eloy de la Iglesia en 1975. C'est un drame abordant les thèmes de l'homosexualité et de la bisexualité, des relations entre professeurs et élèves, de l'inceste, du sadisme et du masochisme ainsi que de la pensée totalitaire, dans une perspective symboliste mais sans signification transparent[1]. Plusieurs scènes du film ont été censurées à sa sortie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeu d'amour interdit (Juego de amor prohibido) est un film espagnol réalisé par Eloy de la Iglesia en 1975. C'est un drame abordant les thèmes de l'homosexualité et de la bisexualité, des relations entre professeurs et élèves, de l'inceste, du sadisme et du masochisme ainsi que de la pensée totalitaire, dans une perspective symboliste mais sans signification transparent. Plusieurs scènes du film ont été censurées à sa sortie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jeu_d%27amour_interdit</t>
+          <t>Jeu_d'amour_interdit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Luis, âgé d'environ 45 ans, est professeur dans une université mixte d'Espagne dans les années 1970. Lors de son dernier cours avant les vacances, il remarque deux étudiants, Julia et Miguel, occupés à regarder une carte routière. Après la fin du cours, alors qu'il rentre chez lui en voiture, Luis aperçoit les deux mêmes étudiants occupés à faire de l'auto-stop. Il s'arrête et les prend dans sa voiture, puis leur propose de dormir chez lui la nuit avant de reprendre leur route le lendemain. Célibataire, Luis vit dans une vaste demeure aux allures de manoir jouxtée d'un grand jardin : il est le dernier héritier d'une riche famille et donne des cours purement pour se distraire. Luis fait les honneurs de sa demeure à Julia et Miguel, notamment sa collection d'armes à feu et ses disques de Wagner. Luis leur présente Jaime, un homme d'une trentaine d'années, qui vit chez lui. Luis entretient visiblement une relation particulière avec Jaime, qui semble se comporter avec lui comme un serviteur avec son maître, sans se définir comme tel, et sans être non plus son ami. Après un repas succulent, Luis conduit les deux jeunes gens à une chambre à la décoration chargée où ils dormiront dans le même lit pour la première fois. Julia et Miguel font l'amour tandis que Luis et Jaime passent la soirée de leur côté.
 Le lendemain, quand Julia et Miguel veulent quitter la maison, Luis s'y refuse et Jaime les tient sous la menace d'un pistolet. Luis et Miguel se retrouvent enfermés dans la cave de la maison. Au fil des jours, leurs tentatives de résistance sont brisées par Luis, qui les menace et les humilie sans les blesser lui-même. Il force Luis à baisser son pantalon, tend un piège aux jeunes gens en laissant un faux pistolet à leur portée pour leur faire croire qu'ils pourraient s'échapper, contraint Luis à fouetter Julia avec une verge, le tout avec la complicité de Jaime, qui semble vivre toujours à l'intérieur de la demeure.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jeu_d%27amour_interdit</t>
+          <t>Jeu_d'amour_interdit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre : Jeu d'amour interdit[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre : Jeu d'amour interdit
 Titre original : Juego de amor prohibido
 Réalisation : Eloy de la Iglesia
 Scénario : Eloy de la Iglesia, Juan A. Porto
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jeu_d%27amour_interdit</t>
+          <t>Jeu_d'amour_interdit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Javier Escrima : Luis
 Simón Andreu : Jaime
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jeu_d%27amour_interdit</t>
+          <t>Jeu_d'amour_interdit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Éditions en vidéo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est édité en DVD en Espagne par Divisa Home Video en 2004. Le DVD inclut le son original espagnol en mono ainsi que le son en Dolby Digital 5.1 réalisé à partir du son d'origine (il ne contient ni sous-titres ni doublages dans d'autres langues). Les bonus comprennent une galerie de photos, les biographie et filmographie du réalisateur, des fiches sur les acteurs, et des fiches d'analyse "La mansió de los siete placeres". 
 </t>
